--- a/uploadfile.xlsx
+++ b/uploadfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="503">
   <si>
     <t>code</t>
   </si>
@@ -20,307 +20,1507 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>014128284554</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>824433970843</t>
-  </si>
-  <si>
-    <t>000341976790</t>
-  </si>
-  <si>
-    <t>266458513556</t>
-  </si>
-  <si>
-    <t>592135659504</t>
-  </si>
-  <si>
-    <t>873026245994</t>
-  </si>
-  <si>
-    <t>545591768777</t>
-  </si>
-  <si>
-    <t>948625525036</t>
-  </si>
-  <si>
-    <t>863643424823</t>
-  </si>
-  <si>
-    <t>815335673992</t>
-  </si>
-  <si>
-    <t>478354958027</t>
-  </si>
-  <si>
-    <t>298497902026</t>
-  </si>
-  <si>
-    <t>401728362160</t>
-  </si>
-  <si>
-    <t>910554570982</t>
-  </si>
-  <si>
-    <t>455563106492</t>
-  </si>
-  <si>
-    <t>372288624522</t>
-  </si>
-  <si>
-    <t>154189981207</t>
-  </si>
-  <si>
-    <t>432762499436</t>
-  </si>
-  <si>
-    <t>246234991756</t>
-  </si>
-  <si>
-    <t>408543295503</t>
-  </si>
-  <si>
-    <t>043185803583</t>
-  </si>
-  <si>
-    <t>423437622025</t>
-  </si>
-  <si>
-    <t>308703176468</t>
-  </si>
-  <si>
-    <t>665695584381</t>
-  </si>
-  <si>
-    <t>012598231105</t>
-  </si>
-  <si>
-    <t>398723046619</t>
-  </si>
-  <si>
-    <t>529028019149</t>
-  </si>
-  <si>
-    <t>996895243072</t>
-  </si>
-  <si>
-    <t>898264641069</t>
-  </si>
-  <si>
-    <t>685233938038</t>
-  </si>
-  <si>
-    <t>781328883209</t>
-  </si>
-  <si>
-    <t>238292638089</t>
-  </si>
-  <si>
-    <t>725611640339</t>
-  </si>
-  <si>
-    <t>622297855546</t>
-  </si>
-  <si>
-    <t>477670006899</t>
-  </si>
-  <si>
-    <t>392946236219</t>
-  </si>
-  <si>
-    <t>193468994860</t>
-  </si>
-  <si>
-    <t>502826596597</t>
-  </si>
-  <si>
-    <t>562910851844</t>
-  </si>
-  <si>
-    <t>865146776235</t>
-  </si>
-  <si>
-    <t>106246986543</t>
-  </si>
-  <si>
-    <t>648987314444</t>
-  </si>
-  <si>
-    <t>538825102169</t>
-  </si>
-  <si>
-    <t>742078941589</t>
-  </si>
-  <si>
-    <t>880903791848</t>
-  </si>
-  <si>
-    <t>505385240922</t>
-  </si>
-  <si>
-    <t>021152652093</t>
-  </si>
-  <si>
-    <t>534683978471</t>
-  </si>
-  <si>
-    <t>824415374893</t>
-  </si>
-  <si>
-    <t>192704280819</t>
-  </si>
-  <si>
-    <t>105221004542</t>
-  </si>
-  <si>
-    <t>780355053195</t>
-  </si>
-  <si>
-    <t>067705130168</t>
-  </si>
-  <si>
-    <t>413305361410</t>
-  </si>
-  <si>
-    <t>196228863055</t>
-  </si>
-  <si>
-    <t>493157949949</t>
-  </si>
-  <si>
-    <t>719801900720</t>
-  </si>
-  <si>
-    <t>216682098770</t>
-  </si>
-  <si>
-    <t>263904219253</t>
-  </si>
-  <si>
-    <t>278781355224</t>
-  </si>
-  <si>
-    <t>457634573386</t>
-  </si>
-  <si>
-    <t>105012721037</t>
-  </si>
-  <si>
-    <t>310092277520</t>
-  </si>
-  <si>
-    <t>358383040549</t>
-  </si>
-  <si>
-    <t>631856132453</t>
-  </si>
-  <si>
-    <t>285256746775</t>
-  </si>
-  <si>
-    <t>461762716265</t>
-  </si>
-  <si>
-    <t>467814017344</t>
-  </si>
-  <si>
-    <t>530631084037</t>
-  </si>
-  <si>
-    <t>116733774763</t>
-  </si>
-  <si>
-    <t>844213669865</t>
-  </si>
-  <si>
-    <t>470753885790</t>
-  </si>
-  <si>
-    <t>056269611749</t>
-  </si>
-  <si>
-    <t>760869305374</t>
-  </si>
-  <si>
-    <t>048465628720</t>
-  </si>
-  <si>
-    <t>556561148061</t>
-  </si>
-  <si>
-    <t>369237307123</t>
-  </si>
-  <si>
-    <t>423528885360</t>
-  </si>
-  <si>
-    <t>774398993583</t>
-  </si>
-  <si>
-    <t>898782891280</t>
-  </si>
-  <si>
-    <t>485763519055</t>
-  </si>
-  <si>
-    <t>849572141279</t>
-  </si>
-  <si>
-    <t>534916400349</t>
-  </si>
-  <si>
-    <t>754478554136</t>
-  </si>
-  <si>
-    <t>460197880529</t>
-  </si>
-  <si>
-    <t>475547359690</t>
-  </si>
-  <si>
-    <t>284260303153</t>
-  </si>
-  <si>
-    <t>904440838171</t>
-  </si>
-  <si>
-    <t>305752852116</t>
-  </si>
-  <si>
-    <t>118084418763</t>
-  </si>
-  <si>
-    <t>195150546172</t>
-  </si>
-  <si>
-    <t>244792310873</t>
-  </si>
-  <si>
-    <t>760510604616</t>
-  </si>
-  <si>
-    <t>608221174004</t>
-  </si>
-  <si>
-    <t>077490645457</t>
-  </si>
-  <si>
-    <t>763156613105</t>
-  </si>
-  <si>
-    <t>547440999663</t>
-  </si>
-  <si>
-    <t>495668364920</t>
-  </si>
-  <si>
-    <t>701079789106</t>
-  </si>
-  <si>
-    <t>829427235612</t>
+    <t>767882274452</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>164645402856</t>
+  </si>
+  <si>
+    <t>408150072800</t>
+  </si>
+  <si>
+    <t>834116013396</t>
+  </si>
+  <si>
+    <t>236258073655</t>
+  </si>
+  <si>
+    <t>235593572785</t>
+  </si>
+  <si>
+    <t>617228697638</t>
+  </si>
+  <si>
+    <t>932797222294</t>
+  </si>
+  <si>
+    <t>095887687909</t>
+  </si>
+  <si>
+    <t>585434477148</t>
+  </si>
+  <si>
+    <t>834963847714</t>
+  </si>
+  <si>
+    <t>756391799106</t>
+  </si>
+  <si>
+    <t>440616085088</t>
+  </si>
+  <si>
+    <t>281645270983</t>
+  </si>
+  <si>
+    <t>820554331777</t>
+  </si>
+  <si>
+    <t>173402983530</t>
+  </si>
+  <si>
+    <t>291331748122</t>
+  </si>
+  <si>
+    <t>582849657974</t>
+  </si>
+  <si>
+    <t>090168001567</t>
+  </si>
+  <si>
+    <t>886628004578</t>
+  </si>
+  <si>
+    <t>473145090452</t>
+  </si>
+  <si>
+    <t>143324945420</t>
+  </si>
+  <si>
+    <t>934426100849</t>
+  </si>
+  <si>
+    <t>655845346259</t>
+  </si>
+  <si>
+    <t>943550830137</t>
+  </si>
+  <si>
+    <t>247335144173</t>
+  </si>
+  <si>
+    <t>414032950821</t>
+  </si>
+  <si>
+    <t>803174828547</t>
+  </si>
+  <si>
+    <t>867443154701</t>
+  </si>
+  <si>
+    <t>253079518098</t>
+  </si>
+  <si>
+    <t>241082636462</t>
+  </si>
+  <si>
+    <t>346890977363</t>
+  </si>
+  <si>
+    <t>097516603790</t>
+  </si>
+  <si>
+    <t>913961925869</t>
+  </si>
+  <si>
+    <t>817327178101</t>
+  </si>
+  <si>
+    <t>066107823960</t>
+  </si>
+  <si>
+    <t>264732805149</t>
+  </si>
+  <si>
+    <t>939020582840</t>
+  </si>
+  <si>
+    <t>035286527035</t>
+  </si>
+  <si>
+    <t>870351563204</t>
+  </si>
+  <si>
+    <t>425107579488</t>
+  </si>
+  <si>
+    <t>255403805651</t>
+  </si>
+  <si>
+    <t>548385506292</t>
+  </si>
+  <si>
+    <t>978701414561</t>
+  </si>
+  <si>
+    <t>530160888474</t>
+  </si>
+  <si>
+    <t>923900133007</t>
+  </si>
+  <si>
+    <t>532930416107</t>
+  </si>
+  <si>
+    <t>805955749898</t>
+  </si>
+  <si>
+    <t>235887712568</t>
+  </si>
+  <si>
+    <t>112587965301</t>
+  </si>
+  <si>
+    <t>744091345017</t>
+  </si>
+  <si>
+    <t>327643673118</t>
+  </si>
+  <si>
+    <t>598450010180</t>
+  </si>
+  <si>
+    <t>882985960081</t>
+  </si>
+  <si>
+    <t>608650272458</t>
+  </si>
+  <si>
+    <t>237622917844</t>
+  </si>
+  <si>
+    <t>559335160985</t>
+  </si>
+  <si>
+    <t>550902972031</t>
+  </si>
+  <si>
+    <t>751122601458</t>
+  </si>
+  <si>
+    <t>342044762901</t>
+  </si>
+  <si>
+    <t>577612187019</t>
+  </si>
+  <si>
+    <t>848293688405</t>
+  </si>
+  <si>
+    <t>294485999449</t>
+  </si>
+  <si>
+    <t>479202371470</t>
+  </si>
+  <si>
+    <t>833230944515</t>
+  </si>
+  <si>
+    <t>547716236655</t>
+  </si>
+  <si>
+    <t>571622592425</t>
+  </si>
+  <si>
+    <t>277450435047</t>
+  </si>
+  <si>
+    <t>802577035139</t>
+  </si>
+  <si>
+    <t>238680163571</t>
+  </si>
+  <si>
+    <t>639380760744</t>
+  </si>
+  <si>
+    <t>672835679756</t>
+  </si>
+  <si>
+    <t>596573866758</t>
+  </si>
+  <si>
+    <t>354016510141</t>
+  </si>
+  <si>
+    <t>085474138478</t>
+  </si>
+  <si>
+    <t>503509565715</t>
+  </si>
+  <si>
+    <t>689373778473</t>
+  </si>
+  <si>
+    <t>664929648189</t>
+  </si>
+  <si>
+    <t>282712783757</t>
+  </si>
+  <si>
+    <t>642616561689</t>
+  </si>
+  <si>
+    <t>075677097104</t>
+  </si>
+  <si>
+    <t>049410206167</t>
+  </si>
+  <si>
+    <t>535942894245</t>
+  </si>
+  <si>
+    <t>509006611292</t>
+  </si>
+  <si>
+    <t>980717851295</t>
+  </si>
+  <si>
+    <t>466099793914</t>
+  </si>
+  <si>
+    <t>560820739446</t>
+  </si>
+  <si>
+    <t>558905138845</t>
+  </si>
+  <si>
+    <t>517054728973</t>
+  </si>
+  <si>
+    <t>603323482186</t>
+  </si>
+  <si>
+    <t>912327865819</t>
+  </si>
+  <si>
+    <t>046434990395</t>
+  </si>
+  <si>
+    <t>453528881091</t>
+  </si>
+  <si>
+    <t>704790935787</t>
+  </si>
+  <si>
+    <t>688406072043</t>
+  </si>
+  <si>
+    <t>216006751796</t>
+  </si>
+  <si>
+    <t>252965446905</t>
+  </si>
+  <si>
+    <t>898717540104</t>
+  </si>
+  <si>
+    <t>403047501720</t>
+  </si>
+  <si>
+    <t>782851131441</t>
+  </si>
+  <si>
+    <t>782835522345</t>
+  </si>
+  <si>
+    <t>574487905192</t>
+  </si>
+  <si>
+    <t>039740591083</t>
+  </si>
+  <si>
+    <t>331138568072</t>
+  </si>
+  <si>
+    <t>993499169486</t>
+  </si>
+  <si>
+    <t>674935217376</t>
+  </si>
+  <si>
+    <t>593186393880</t>
+  </si>
+  <si>
+    <t>668625315591</t>
+  </si>
+  <si>
+    <t>899091044580</t>
+  </si>
+  <si>
+    <t>671848888963</t>
+  </si>
+  <si>
+    <t>100055896347</t>
+  </si>
+  <si>
+    <t>885749379167</t>
+  </si>
+  <si>
+    <t>868932037086</t>
+  </si>
+  <si>
+    <t>058596815374</t>
+  </si>
+  <si>
+    <t>892415737964</t>
+  </si>
+  <si>
+    <t>591252975684</t>
+  </si>
+  <si>
+    <t>281065631141</t>
+  </si>
+  <si>
+    <t>780556634696</t>
+  </si>
+  <si>
+    <t>158882138042</t>
+  </si>
+  <si>
+    <t>500216025554</t>
+  </si>
+  <si>
+    <t>815573741984</t>
+  </si>
+  <si>
+    <t>208918345031</t>
+  </si>
+  <si>
+    <t>109492917069</t>
+  </si>
+  <si>
+    <t>884424707901</t>
+  </si>
+  <si>
+    <t>620934705591</t>
+  </si>
+  <si>
+    <t>166250509836</t>
+  </si>
+  <si>
+    <t>698360276471</t>
+  </si>
+  <si>
+    <t>100266278509</t>
+  </si>
+  <si>
+    <t>867926599257</t>
+  </si>
+  <si>
+    <t>325066974289</t>
+  </si>
+  <si>
+    <t>621845502161</t>
+  </si>
+  <si>
+    <t>090603019900</t>
+  </si>
+  <si>
+    <t>153988002185</t>
+  </si>
+  <si>
+    <t>122359227350</t>
+  </si>
+  <si>
+    <t>944346971505</t>
+  </si>
+  <si>
+    <t>490093023226</t>
+  </si>
+  <si>
+    <t>352920313401</t>
+  </si>
+  <si>
+    <t>417375617097</t>
+  </si>
+  <si>
+    <t>063502529435</t>
+  </si>
+  <si>
+    <t>958352503003</t>
+  </si>
+  <si>
+    <t>939174959749</t>
+  </si>
+  <si>
+    <t>267621947376</t>
+  </si>
+  <si>
+    <t>900089472984</t>
+  </si>
+  <si>
+    <t>595178202458</t>
+  </si>
+  <si>
+    <t>954022689371</t>
+  </si>
+  <si>
+    <t>370759966370</t>
+  </si>
+  <si>
+    <t>989986878113</t>
+  </si>
+  <si>
+    <t>916803030936</t>
+  </si>
+  <si>
+    <t>859693816800</t>
+  </si>
+  <si>
+    <t>810249783591</t>
+  </si>
+  <si>
+    <t>828730125866</t>
+  </si>
+  <si>
+    <t>855773866349</t>
+  </si>
+  <si>
+    <t>389965066475</t>
+  </si>
+  <si>
+    <t>527474522003</t>
+  </si>
+  <si>
+    <t>299364769491</t>
+  </si>
+  <si>
+    <t>071999351005</t>
+  </si>
+  <si>
+    <t>716377679781</t>
+  </si>
+  <si>
+    <t>318115398802</t>
+  </si>
+  <si>
+    <t>273806555452</t>
+  </si>
+  <si>
+    <t>709996619463</t>
+  </si>
+  <si>
+    <t>864762044096</t>
+  </si>
+  <si>
+    <t>105566345813</t>
+  </si>
+  <si>
+    <t>597993214679</t>
+  </si>
+  <si>
+    <t>206761522808</t>
+  </si>
+  <si>
+    <t>614277979440</t>
+  </si>
+  <si>
+    <t>061083255125</t>
+  </si>
+  <si>
+    <t>043588636695</t>
+  </si>
+  <si>
+    <t>104533320877</t>
+  </si>
+  <si>
+    <t>679971882148</t>
+  </si>
+  <si>
+    <t>681497948581</t>
+  </si>
+  <si>
+    <t>329313827504</t>
+  </si>
+  <si>
+    <t>604611757756</t>
+  </si>
+  <si>
+    <t>120903333648</t>
+  </si>
+  <si>
+    <t>814565823767</t>
+  </si>
+  <si>
+    <t>354177957804</t>
+  </si>
+  <si>
+    <t>582525226322</t>
+  </si>
+  <si>
+    <t>877973433433</t>
+  </si>
+  <si>
+    <t>668822561639</t>
+  </si>
+  <si>
+    <t>484068854247</t>
+  </si>
+  <si>
+    <t>858346691021</t>
+  </si>
+  <si>
+    <t>299795435963</t>
+  </si>
+  <si>
+    <t>386128499824</t>
+  </si>
+  <si>
+    <t>238574818967</t>
+  </si>
+  <si>
+    <t>359730383110</t>
+  </si>
+  <si>
+    <t>578148828616</t>
+  </si>
+  <si>
+    <t>407970061437</t>
+  </si>
+  <si>
+    <t>722708675945</t>
+  </si>
+  <si>
+    <t>515346313464</t>
+  </si>
+  <si>
+    <t>876721511991</t>
+  </si>
+  <si>
+    <t>909877171635</t>
+  </si>
+  <si>
+    <t>578775927781</t>
+  </si>
+  <si>
+    <t>327030545666</t>
+  </si>
+  <si>
+    <t>940377796018</t>
+  </si>
+  <si>
+    <t>226971294126</t>
+  </si>
+  <si>
+    <t>326628262863</t>
+  </si>
+  <si>
+    <t>060319124191</t>
+  </si>
+  <si>
+    <t>972977878154</t>
+  </si>
+  <si>
+    <t>899601711211</t>
+  </si>
+  <si>
+    <t>612878885664</t>
+  </si>
+  <si>
+    <t>734803715399</t>
+  </si>
+  <si>
+    <t>169213671998</t>
+  </si>
+  <si>
+    <t>136501993343</t>
+  </si>
+  <si>
+    <t>950206270726</t>
+  </si>
+  <si>
+    <t>222639987949</t>
+  </si>
+  <si>
+    <t>814243407300</t>
+  </si>
+  <si>
+    <t>171612689296</t>
+  </si>
+  <si>
+    <t>035420984700</t>
+  </si>
+  <si>
+    <t>643611798456</t>
+  </si>
+  <si>
+    <t>783661674098</t>
+  </si>
+  <si>
+    <t>833894186273</t>
+  </si>
+  <si>
+    <t>942188120575</t>
+  </si>
+  <si>
+    <t>910548321816</t>
+  </si>
+  <si>
+    <t>305634439981</t>
+  </si>
+  <si>
+    <t>480285453974</t>
+  </si>
+  <si>
+    <t>087918276900</t>
+  </si>
+  <si>
+    <t>295712378109</t>
+  </si>
+  <si>
+    <t>100654638952</t>
+  </si>
+  <si>
+    <t>222515184886</t>
+  </si>
+  <si>
+    <t>221470905830</t>
+  </si>
+  <si>
+    <t>762433811810</t>
+  </si>
+  <si>
+    <t>301293034632</t>
+  </si>
+  <si>
+    <t>991963071206</t>
+  </si>
+  <si>
+    <t>699301802051</t>
+  </si>
+  <si>
+    <t>307909555327</t>
+  </si>
+  <si>
+    <t>551914775719</t>
+  </si>
+  <si>
+    <t>219054310163</t>
+  </si>
+  <si>
+    <t>046099929028</t>
+  </si>
+  <si>
+    <t>130746151285</t>
+  </si>
+  <si>
+    <t>606242095125</t>
+  </si>
+  <si>
+    <t>628441487345</t>
+  </si>
+  <si>
+    <t>169158777431</t>
+  </si>
+  <si>
+    <t>998616297437</t>
+  </si>
+  <si>
+    <t>792940709676</t>
+  </si>
+  <si>
+    <t>708716504160</t>
+  </si>
+  <si>
+    <t>355454855662</t>
+  </si>
+  <si>
+    <t>744780195992</t>
+  </si>
+  <si>
+    <t>125857617927</t>
+  </si>
+  <si>
+    <t>412271133154</t>
+  </si>
+  <si>
+    <t>354335872412</t>
+  </si>
+  <si>
+    <t>046744527333</t>
+  </si>
+  <si>
+    <t>370129277746</t>
+  </si>
+  <si>
+    <t>669210921782</t>
+  </si>
+  <si>
+    <t>989676856883</t>
+  </si>
+  <si>
+    <t>601486119979</t>
+  </si>
+  <si>
+    <t>458277120561</t>
+  </si>
+  <si>
+    <t>947128110984</t>
+  </si>
+  <si>
+    <t>616359320242</t>
+  </si>
+  <si>
+    <t>134416394848</t>
+  </si>
+  <si>
+    <t>900115069228</t>
+  </si>
+  <si>
+    <t>867529979491</t>
+  </si>
+  <si>
+    <t>968113666639</t>
+  </si>
+  <si>
+    <t>048945255520</t>
+  </si>
+  <si>
+    <t>803502038297</t>
+  </si>
+  <si>
+    <t>045329782779</t>
+  </si>
+  <si>
+    <t>988557484058</t>
+  </si>
+  <si>
+    <t>003793852070</t>
+  </si>
+  <si>
+    <t>848826823250</t>
+  </si>
+  <si>
+    <t>772578252367</t>
+  </si>
+  <si>
+    <t>112664622406</t>
+  </si>
+  <si>
+    <t>984441354345</t>
+  </si>
+  <si>
+    <t>040750935075</t>
+  </si>
+  <si>
+    <t>809713206500</t>
+  </si>
+  <si>
+    <t>708757382001</t>
+  </si>
+  <si>
+    <t>343064455623</t>
+  </si>
+  <si>
+    <t>212577938864</t>
+  </si>
+  <si>
+    <t>310097231299</t>
+  </si>
+  <si>
+    <t>367125217533</t>
+  </si>
+  <si>
+    <t>036208501233</t>
+  </si>
+  <si>
+    <t>191156906995</t>
+  </si>
+  <si>
+    <t>397695589264</t>
+  </si>
+  <si>
+    <t>090169290190</t>
+  </si>
+  <si>
+    <t>158587452210</t>
+  </si>
+  <si>
+    <t>659764694689</t>
+  </si>
+  <si>
+    <t>704051259785</t>
+  </si>
+  <si>
+    <t>954721384505</t>
+  </si>
+  <si>
+    <t>355731458885</t>
+  </si>
+  <si>
+    <t>002447849400</t>
+  </si>
+  <si>
+    <t>057267686057</t>
+  </si>
+  <si>
+    <t>775718381687</t>
+  </si>
+  <si>
+    <t>568585468537</t>
+  </si>
+  <si>
+    <t>465381769263</t>
+  </si>
+  <si>
+    <t>463497144415</t>
+  </si>
+  <si>
+    <t>745680212594</t>
+  </si>
+  <si>
+    <t>319919552729</t>
+  </si>
+  <si>
+    <t>887337375619</t>
+  </si>
+  <si>
+    <t>245247626037</t>
+  </si>
+  <si>
+    <t>607955301734</t>
+  </si>
+  <si>
+    <t>585084721198</t>
+  </si>
+  <si>
+    <t>746044002517</t>
+  </si>
+  <si>
+    <t>241030254961</t>
+  </si>
+  <si>
+    <t>214307204917</t>
+  </si>
+  <si>
+    <t>359441347759</t>
+  </si>
+  <si>
+    <t>200466268813</t>
+  </si>
+  <si>
+    <t>484731083499</t>
+  </si>
+  <si>
+    <t>181952156817</t>
+  </si>
+  <si>
+    <t>035955543370</t>
+  </si>
+  <si>
+    <t>131723262848</t>
+  </si>
+  <si>
+    <t>093732785930</t>
+  </si>
+  <si>
+    <t>799631496549</t>
+  </si>
+  <si>
+    <t>455634669413</t>
+  </si>
+  <si>
+    <t>934801762173</t>
+  </si>
+  <si>
+    <t>036953671275</t>
+  </si>
+  <si>
+    <t>211939071981</t>
+  </si>
+  <si>
+    <t>964674647812</t>
+  </si>
+  <si>
+    <t>515892237119</t>
+  </si>
+  <si>
+    <t>379938373370</t>
+  </si>
+  <si>
+    <t>444665350117</t>
+  </si>
+  <si>
+    <t>692494166419</t>
+  </si>
+  <si>
+    <t>791055406577</t>
+  </si>
+  <si>
+    <t>496136175532</t>
+  </si>
+  <si>
+    <t>909368090306</t>
+  </si>
+  <si>
+    <t>833446631531</t>
+  </si>
+  <si>
+    <t>293022749588</t>
+  </si>
+  <si>
+    <t>669720825426</t>
+  </si>
+  <si>
+    <t>378724887928</t>
+  </si>
+  <si>
+    <t>970888313991</t>
+  </si>
+  <si>
+    <t>933150681607</t>
+  </si>
+  <si>
+    <t>508579339646</t>
+  </si>
+  <si>
+    <t>212319378752</t>
+  </si>
+  <si>
+    <t>698958473973</t>
+  </si>
+  <si>
+    <t>384913571628</t>
+  </si>
+  <si>
+    <t>447520106121</t>
+  </si>
+  <si>
+    <t>347809430425</t>
+  </si>
+  <si>
+    <t>396005077443</t>
+  </si>
+  <si>
+    <t>217730034367</t>
+  </si>
+  <si>
+    <t>457739776345</t>
+  </si>
+  <si>
+    <t>591737555532</t>
+  </si>
+  <si>
+    <t>372667834340</t>
+  </si>
+  <si>
+    <t>233112399103</t>
+  </si>
+  <si>
+    <t>549314839711</t>
+  </si>
+  <si>
+    <t>008691173624</t>
+  </si>
+  <si>
+    <t>409209037127</t>
+  </si>
+  <si>
+    <t>294611120927</t>
+  </si>
+  <si>
+    <t>043287559507</t>
+  </si>
+  <si>
+    <t>148382568525</t>
+  </si>
+  <si>
+    <t>815255155416</t>
+  </si>
+  <si>
+    <t>662978906774</t>
+  </si>
+  <si>
+    <t>840798517038</t>
+  </si>
+  <si>
+    <t>924417967282</t>
+  </si>
+  <si>
+    <t>366600934197</t>
+  </si>
+  <si>
+    <t>602226079869</t>
+  </si>
+  <si>
+    <t>068694052517</t>
+  </si>
+  <si>
+    <t>309345717224</t>
+  </si>
+  <si>
+    <t>577471473445</t>
+  </si>
+  <si>
+    <t>484356447701</t>
+  </si>
+  <si>
+    <t>429607199785</t>
+  </si>
+  <si>
+    <t>371135951001</t>
+  </si>
+  <si>
+    <t>815094404536</t>
+  </si>
+  <si>
+    <t>751988968518</t>
+  </si>
+  <si>
+    <t>858501548211</t>
+  </si>
+  <si>
+    <t>239327619532</t>
+  </si>
+  <si>
+    <t>545504113102</t>
+  </si>
+  <si>
+    <t>987613371661</t>
+  </si>
+  <si>
+    <t>273572814107</t>
+  </si>
+  <si>
+    <t>639756411214</t>
+  </si>
+  <si>
+    <t>431729752232</t>
+  </si>
+  <si>
+    <t>375750518957</t>
+  </si>
+  <si>
+    <t>202653130406</t>
+  </si>
+  <si>
+    <t>708607713788</t>
+  </si>
+  <si>
+    <t>791451306046</t>
+  </si>
+  <si>
+    <t>454775020009</t>
+  </si>
+  <si>
+    <t>358730330472</t>
+  </si>
+  <si>
+    <t>808869147354</t>
+  </si>
+  <si>
+    <t>235130374458</t>
+  </si>
+  <si>
+    <t>851057694890</t>
+  </si>
+  <si>
+    <t>418942392014</t>
+  </si>
+  <si>
+    <t>610107164908</t>
+  </si>
+  <si>
+    <t>989792779531</t>
+  </si>
+  <si>
+    <t>494806825873</t>
+  </si>
+  <si>
+    <t>086185584884</t>
+  </si>
+  <si>
+    <t>761641514614</t>
+  </si>
+  <si>
+    <t>081691825072</t>
+  </si>
+  <si>
+    <t>394089933280</t>
+  </si>
+  <si>
+    <t>872800908520</t>
+  </si>
+  <si>
+    <t>347463162738</t>
+  </si>
+  <si>
+    <t>139645906962</t>
+  </si>
+  <si>
+    <t>514705058672</t>
+  </si>
+  <si>
+    <t>886773853160</t>
+  </si>
+  <si>
+    <t>166334612639</t>
+  </si>
+  <si>
+    <t>013894724022</t>
+  </si>
+  <si>
+    <t>048366855115</t>
+  </si>
+  <si>
+    <t>943128851793</t>
+  </si>
+  <si>
+    <t>956380587469</t>
+  </si>
+  <si>
+    <t>085559606453</t>
+  </si>
+  <si>
+    <t>075686160137</t>
+  </si>
+  <si>
+    <t>286246039900</t>
+  </si>
+  <si>
+    <t>746020256814</t>
+  </si>
+  <si>
+    <t>419667471435</t>
+  </si>
+  <si>
+    <t>395817042518</t>
+  </si>
+  <si>
+    <t>034877992187</t>
+  </si>
+  <si>
+    <t>775586634114</t>
+  </si>
+  <si>
+    <t>215149591090</t>
+  </si>
+  <si>
+    <t>982547288809</t>
+  </si>
+  <si>
+    <t>325307662088</t>
+  </si>
+  <si>
+    <t>678307258150</t>
+  </si>
+  <si>
+    <t>621586584275</t>
+  </si>
+  <si>
+    <t>221612680369</t>
+  </si>
+  <si>
+    <t>424376151202</t>
+  </si>
+  <si>
+    <t>943835267772</t>
+  </si>
+  <si>
+    <t>963864908715</t>
+  </si>
+  <si>
+    <t>081680133555</t>
+  </si>
+  <si>
+    <t>962292963276</t>
+  </si>
+  <si>
+    <t>774802888991</t>
+  </si>
+  <si>
+    <t>905180127702</t>
+  </si>
+  <si>
+    <t>794338394296</t>
+  </si>
+  <si>
+    <t>512787047310</t>
+  </si>
+  <si>
+    <t>706624344670</t>
+  </si>
+  <si>
+    <t>731649442977</t>
+  </si>
+  <si>
+    <t>982538071709</t>
+  </si>
+  <si>
+    <t>070860675707</t>
+  </si>
+  <si>
+    <t>320449385997</t>
+  </si>
+  <si>
+    <t>715373009398</t>
+  </si>
+  <si>
+    <t>428170016568</t>
+  </si>
+  <si>
+    <t>833914252966</t>
+  </si>
+  <si>
+    <t>088227124037</t>
+  </si>
+  <si>
+    <t>250805547020</t>
+  </si>
+  <si>
+    <t>358899099929</t>
+  </si>
+  <si>
+    <t>408588660128</t>
+  </si>
+  <si>
+    <t>513942424627</t>
+  </si>
+  <si>
+    <t>829100041225</t>
+  </si>
+  <si>
+    <t>506598925974</t>
+  </si>
+  <si>
+    <t>054416802598</t>
+  </si>
+  <si>
+    <t>224176135310</t>
+  </si>
+  <si>
+    <t>709642415137</t>
+  </si>
+  <si>
+    <t>468136797849</t>
+  </si>
+  <si>
+    <t>344968116153</t>
+  </si>
+  <si>
+    <t>744574080473</t>
+  </si>
+  <si>
+    <t>944115539786</t>
+  </si>
+  <si>
+    <t>248744773744</t>
+  </si>
+  <si>
+    <t>935894966195</t>
+  </si>
+  <si>
+    <t>398635348574</t>
+  </si>
+  <si>
+    <t>674842639704</t>
+  </si>
+  <si>
+    <t>129963819791</t>
+  </si>
+  <si>
+    <t>736913290107</t>
+  </si>
+  <si>
+    <t>841898702185</t>
+  </si>
+  <si>
+    <t>276692370101</t>
+  </si>
+  <si>
+    <t>636437048808</t>
+  </si>
+  <si>
+    <t>006735784386</t>
+  </si>
+  <si>
+    <t>843793279364</t>
+  </si>
+  <si>
+    <t>046334727066</t>
+  </si>
+  <si>
+    <t>994166636432</t>
+  </si>
+  <si>
+    <t>285938537189</t>
+  </si>
+  <si>
+    <t>172354149269</t>
+  </si>
+  <si>
+    <t>773763822973</t>
+  </si>
+  <si>
+    <t>793503251355</t>
+  </si>
+  <si>
+    <t>917376971770</t>
+  </si>
+  <si>
+    <t>325688856223</t>
+  </si>
+  <si>
+    <t>574663645468</t>
+  </si>
+  <si>
+    <t>950953479248</t>
+  </si>
+  <si>
+    <t>290027320793</t>
+  </si>
+  <si>
+    <t>302797670660</t>
+  </si>
+  <si>
+    <t>383968543398</t>
+  </si>
+  <si>
+    <t>492874943048</t>
+  </si>
+  <si>
+    <t>499411363285</t>
+  </si>
+  <si>
+    <t>415536281820</t>
+  </si>
+  <si>
+    <t>757866795798</t>
+  </si>
+  <si>
+    <t>929011989986</t>
+  </si>
+  <si>
+    <t>599522300376</t>
+  </si>
+  <si>
+    <t>215715472838</t>
+  </si>
+  <si>
+    <t>188620939349</t>
+  </si>
+  <si>
+    <t>282756224305</t>
+  </si>
+  <si>
+    <t>941107080809</t>
+  </si>
+  <si>
+    <t>647060312203</t>
+  </si>
+  <si>
+    <t>987167593597</t>
+  </si>
+  <si>
+    <t>409624419631</t>
+  </si>
+  <si>
+    <t>074429477232</t>
+  </si>
+  <si>
+    <t>789602646344</t>
+  </si>
+  <si>
+    <t>851920037874</t>
+  </si>
+  <si>
+    <t>711958535044</t>
+  </si>
+  <si>
+    <t>293682050877</t>
+  </si>
+  <si>
+    <t>385727173283</t>
+  </si>
+  <si>
+    <t>972917106612</t>
+  </si>
+  <si>
+    <t>169815377220</t>
+  </si>
+  <si>
+    <t>445377706297</t>
+  </si>
+  <si>
+    <t>743179554932</t>
+  </si>
+  <si>
+    <t>589450239332</t>
+  </si>
+  <si>
+    <t>414106084752</t>
+  </si>
+  <si>
+    <t>135804079925</t>
+  </si>
+  <si>
+    <t>501329189167</t>
+  </si>
+  <si>
+    <t>664157725135</t>
+  </si>
+  <si>
+    <t>542872040674</t>
+  </si>
+  <si>
+    <t>678618509371</t>
+  </si>
+  <si>
+    <t>436960668069</t>
+  </si>
+  <si>
+    <t>261109633276</t>
+  </si>
+  <si>
+    <t>187776766660</t>
+  </si>
+  <si>
+    <t>071999857175</t>
+  </si>
+  <si>
+    <t>599899901766</t>
+  </si>
+  <si>
+    <t>388045738687</t>
+  </si>
+  <si>
+    <t>993631033641</t>
+  </si>
+  <si>
+    <t>173649067761</t>
+  </si>
+  <si>
+    <t>196813147159</t>
+  </si>
+  <si>
+    <t>523136102904</t>
+  </si>
+  <si>
+    <t>001802400321</t>
+  </si>
+  <si>
+    <t>735507287778</t>
+  </si>
+  <si>
+    <t>861302681843</t>
+  </si>
+  <si>
+    <t>111245825202</t>
+  </si>
+  <si>
+    <t>121258139683</t>
+  </si>
+  <si>
+    <t>408633120841</t>
+  </si>
+  <si>
+    <t>780596239853</t>
+  </si>
+  <si>
+    <t>484862102992</t>
   </si>
 </sst>
 </file>
@@ -365,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1179,6 +2379,3206 @@
         <v>3</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/uploadfile.xlsx
+++ b/uploadfile.xlsx
@@ -20,1507 +20,1507 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>771109346654</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>047062340964</t>
-  </si>
-  <si>
-    <t>709829563003</t>
-  </si>
-  <si>
-    <t>517488247868</t>
-  </si>
-  <si>
-    <t>361568447951</t>
-  </si>
-  <si>
-    <t>681023085848</t>
-  </si>
-  <si>
-    <t>273574235129</t>
-  </si>
-  <si>
-    <t>694765512512</t>
-  </si>
-  <si>
-    <t>976041914129</t>
-  </si>
-  <si>
-    <t>831673309084</t>
-  </si>
-  <si>
-    <t>846609966434</t>
-  </si>
-  <si>
-    <t>657231661264</t>
-  </si>
-  <si>
-    <t>130769731732</t>
-  </si>
-  <si>
-    <t>932241637972</t>
-  </si>
-  <si>
-    <t>688170987119</t>
-  </si>
-  <si>
-    <t>498208930975</t>
-  </si>
-  <si>
-    <t>296038545353</t>
-  </si>
-  <si>
-    <t>137759278898</t>
-  </si>
-  <si>
-    <t>283371889247</t>
-  </si>
-  <si>
-    <t>978309728205</t>
-  </si>
-  <si>
-    <t>449837529183</t>
-  </si>
-  <si>
-    <t>851792790477</t>
-  </si>
-  <si>
-    <t>330196736089</t>
-  </si>
-  <si>
-    <t>197273833775</t>
-  </si>
-  <si>
-    <t>583282828139</t>
-  </si>
-  <si>
-    <t>427424416439</t>
-  </si>
-  <si>
-    <t>219113815142</t>
-  </si>
-  <si>
-    <t>508885047797</t>
-  </si>
-  <si>
-    <t>370632604742</t>
-  </si>
-  <si>
-    <t>750177918160</t>
-  </si>
-  <si>
-    <t>177637202648</t>
-  </si>
-  <si>
-    <t>263026192562</t>
-  </si>
-  <si>
-    <t>244215122832</t>
-  </si>
-  <si>
-    <t>562572202921</t>
-  </si>
-  <si>
-    <t>773942246306</t>
-  </si>
-  <si>
-    <t>480342044039</t>
-  </si>
-  <si>
-    <t>768470196522</t>
-  </si>
-  <si>
-    <t>082114771588</t>
-  </si>
-  <si>
-    <t>669785157886</t>
-  </si>
-  <si>
-    <t>762669237281</t>
-  </si>
-  <si>
-    <t>343269942716</t>
-  </si>
-  <si>
-    <t>744183728315</t>
-  </si>
-  <si>
-    <t>548662557850</t>
-  </si>
-  <si>
-    <t>667676706279</t>
-  </si>
-  <si>
-    <t>286522558999</t>
-  </si>
-  <si>
-    <t>371273060935</t>
-  </si>
-  <si>
-    <t>109658068445</t>
-  </si>
-  <si>
-    <t>365795205193</t>
-  </si>
-  <si>
-    <t>588626049843</t>
-  </si>
-  <si>
-    <t>910788801776</t>
-  </si>
-  <si>
-    <t>538689162719</t>
-  </si>
-  <si>
-    <t>532266630388</t>
-  </si>
-  <si>
-    <t>010739356095</t>
-  </si>
-  <si>
-    <t>551199902204</t>
-  </si>
-  <si>
-    <t>905729164157</t>
-  </si>
-  <si>
-    <t>035126042386</t>
-  </si>
-  <si>
-    <t>891768870278</t>
-  </si>
-  <si>
-    <t>322922950636</t>
-  </si>
-  <si>
-    <t>669371749711</t>
-  </si>
-  <si>
-    <t>033104753896</t>
-  </si>
-  <si>
-    <t>585038259959</t>
-  </si>
-  <si>
-    <t>138572308189</t>
-  </si>
-  <si>
-    <t>132136025623</t>
-  </si>
-  <si>
-    <t>747220556809</t>
-  </si>
-  <si>
-    <t>242825615966</t>
-  </si>
-  <si>
-    <t>022249279686</t>
-  </si>
-  <si>
-    <t>507930177263</t>
-  </si>
-  <si>
-    <t>220710666240</t>
-  </si>
-  <si>
-    <t>999473572513</t>
-  </si>
-  <si>
-    <t>985323088623</t>
-  </si>
-  <si>
-    <t>039989169718</t>
-  </si>
-  <si>
-    <t>301975972356</t>
-  </si>
-  <si>
-    <t>866476347356</t>
-  </si>
-  <si>
-    <t>569815071872</t>
-  </si>
-  <si>
-    <t>079314235814</t>
-  </si>
-  <si>
-    <t>769630210473</t>
-  </si>
-  <si>
-    <t>102126619819</t>
-  </si>
-  <si>
-    <t>206391497577</t>
-  </si>
-  <si>
-    <t>713073757909</t>
-  </si>
-  <si>
-    <t>624752401806</t>
-  </si>
-  <si>
-    <t>173426798962</t>
-  </si>
-  <si>
-    <t>875196032061</t>
-  </si>
-  <si>
-    <t>938805144194</t>
-  </si>
-  <si>
-    <t>211779833947</t>
-  </si>
-  <si>
-    <t>787743417755</t>
-  </si>
-  <si>
-    <t>887043546763</t>
-  </si>
-  <si>
-    <t>467634692783</t>
-  </si>
-  <si>
-    <t>388121593357</t>
-  </si>
-  <si>
-    <t>532933056696</t>
-  </si>
-  <si>
-    <t>071596220608</t>
-  </si>
-  <si>
-    <t>695891177546</t>
-  </si>
-  <si>
-    <t>458513597097</t>
-  </si>
-  <si>
-    <t>103611424352</t>
-  </si>
-  <si>
-    <t>002911755731</t>
-  </si>
-  <si>
-    <t>448490069403</t>
-  </si>
-  <si>
-    <t>545579031819</t>
-  </si>
-  <si>
-    <t>055624265777</t>
-  </si>
-  <si>
-    <t>442971369897</t>
-  </si>
-  <si>
-    <t>534984673820</t>
-  </si>
-  <si>
-    <t>352905491577</t>
-  </si>
-  <si>
-    <t>411796390678</t>
-  </si>
-  <si>
-    <t>618278141008</t>
-  </si>
-  <si>
-    <t>314724845352</t>
-  </si>
-  <si>
-    <t>718177404174</t>
-  </si>
-  <si>
-    <t>625389230904</t>
-  </si>
-  <si>
-    <t>471226934431</t>
-  </si>
-  <si>
-    <t>610819296616</t>
-  </si>
-  <si>
-    <t>049562278942</t>
-  </si>
-  <si>
-    <t>377163630337</t>
-  </si>
-  <si>
-    <t>014362705475</t>
-  </si>
-  <si>
-    <t>066401855403</t>
-  </si>
-  <si>
-    <t>668376925793</t>
-  </si>
-  <si>
-    <t>018068726120</t>
-  </si>
-  <si>
-    <t>391320421594</t>
-  </si>
-  <si>
-    <t>111395919758</t>
-  </si>
-  <si>
-    <t>684262849752</t>
-  </si>
-  <si>
-    <t>395144953957</t>
-  </si>
-  <si>
-    <t>882393834267</t>
-  </si>
-  <si>
-    <t>576975441161</t>
-  </si>
-  <si>
-    <t>842925963022</t>
-  </si>
-  <si>
-    <t>148112057326</t>
-  </si>
-  <si>
-    <t>086628922998</t>
-  </si>
-  <si>
-    <t>414221895844</t>
-  </si>
-  <si>
-    <t>893557870946</t>
-  </si>
-  <si>
-    <t>780356585704</t>
-  </si>
-  <si>
-    <t>214546266190</t>
-  </si>
-  <si>
-    <t>344870015934</t>
-  </si>
-  <si>
-    <t>586430520408</t>
-  </si>
-  <si>
-    <t>205816896243</t>
-  </si>
-  <si>
-    <t>475198143279</t>
-  </si>
-  <si>
-    <t>347194231460</t>
-  </si>
-  <si>
-    <t>755310240589</t>
-  </si>
-  <si>
-    <t>840096266600</t>
-  </si>
-  <si>
-    <t>979121764975</t>
-  </si>
-  <si>
-    <t>565446424170</t>
-  </si>
-  <si>
-    <t>177645858411</t>
-  </si>
-  <si>
-    <t>622518995300</t>
-  </si>
-  <si>
-    <t>766297268585</t>
-  </si>
-  <si>
-    <t>438763789796</t>
-  </si>
-  <si>
-    <t>842922094527</t>
-  </si>
-  <si>
-    <t>883763402711</t>
-  </si>
-  <si>
-    <t>805198244102</t>
-  </si>
-  <si>
-    <t>074179388910</t>
-  </si>
-  <si>
-    <t>794812693734</t>
-  </si>
-  <si>
-    <t>073578540970</t>
-  </si>
-  <si>
-    <t>530979268856</t>
-  </si>
-  <si>
-    <t>583512342467</t>
-  </si>
-  <si>
-    <t>908480305464</t>
-  </si>
-  <si>
-    <t>224996662879</t>
-  </si>
-  <si>
-    <t>153665613864</t>
-  </si>
-  <si>
-    <t>468068956347</t>
-  </si>
-  <si>
-    <t>264251752158</t>
-  </si>
-  <si>
-    <t>376969861545</t>
-  </si>
-  <si>
-    <t>573246442746</t>
-  </si>
-  <si>
-    <t>222182706652</t>
-  </si>
-  <si>
-    <t>458413339484</t>
-  </si>
-  <si>
-    <t>807647622983</t>
-  </si>
-  <si>
-    <t>556827433388</t>
-  </si>
-  <si>
-    <t>224820286583</t>
-  </si>
-  <si>
-    <t>893749545542</t>
-  </si>
-  <si>
-    <t>648012963295</t>
-  </si>
-  <si>
-    <t>072069893242</t>
-  </si>
-  <si>
-    <t>577314833190</t>
-  </si>
-  <si>
-    <t>086417806358</t>
-  </si>
-  <si>
-    <t>205138093469</t>
-  </si>
-  <si>
-    <t>828283964497</t>
-  </si>
-  <si>
-    <t>965547713813</t>
-  </si>
-  <si>
-    <t>757853329667</t>
-  </si>
-  <si>
-    <t>176828539855</t>
-  </si>
-  <si>
-    <t>947258042362</t>
-  </si>
-  <si>
-    <t>308180222871</t>
-  </si>
-  <si>
-    <t>207208225165</t>
-  </si>
-  <si>
-    <t>361372553283</t>
-  </si>
-  <si>
-    <t>395947508225</t>
-  </si>
-  <si>
-    <t>016024945571</t>
-  </si>
-  <si>
-    <t>810316566805</t>
-  </si>
-  <si>
-    <t>993459659087</t>
-  </si>
-  <si>
-    <t>888308514804</t>
-  </si>
-  <si>
-    <t>645385349857</t>
-  </si>
-  <si>
-    <t>514050949185</t>
-  </si>
-  <si>
-    <t>520914342183</t>
-  </si>
-  <si>
-    <t>462978683260</t>
-  </si>
-  <si>
-    <t>795511893665</t>
-  </si>
-  <si>
-    <t>323484812923</t>
-  </si>
-  <si>
-    <t>304080533329</t>
-  </si>
-  <si>
-    <t>716978633511</t>
-  </si>
-  <si>
-    <t>008373051171</t>
-  </si>
-  <si>
-    <t>538421886929</t>
-  </si>
-  <si>
-    <t>633142456258</t>
-  </si>
-  <si>
-    <t>754474682416</t>
-  </si>
-  <si>
-    <t>586471090994</t>
-  </si>
-  <si>
-    <t>462504351135</t>
-  </si>
-  <si>
-    <t>971588820033</t>
-  </si>
-  <si>
-    <t>225149449516</t>
-  </si>
-  <si>
-    <t>050756433286</t>
-  </si>
-  <si>
-    <t>541488198632</t>
-  </si>
-  <si>
-    <t>356636936104</t>
-  </si>
-  <si>
-    <t>012246945771</t>
-  </si>
-  <si>
-    <t>166260299619</t>
-  </si>
-  <si>
-    <t>370440607362</t>
-  </si>
-  <si>
-    <t>329160597428</t>
-  </si>
-  <si>
-    <t>544182923306</t>
-  </si>
-  <si>
-    <t>120217614527</t>
-  </si>
-  <si>
-    <t>789552441682</t>
-  </si>
-  <si>
-    <t>822779229626</t>
-  </si>
-  <si>
-    <t>424971793240</t>
-  </si>
-  <si>
-    <t>721032447927</t>
-  </si>
-  <si>
-    <t>223613861536</t>
-  </si>
-  <si>
-    <t>493866014152</t>
-  </si>
-  <si>
-    <t>552317507563</t>
-  </si>
-  <si>
-    <t>501325420537</t>
-  </si>
-  <si>
-    <t>501545163042</t>
-  </si>
-  <si>
-    <t>775696629218</t>
-  </si>
-  <si>
-    <t>024734031157</t>
-  </si>
-  <si>
-    <t>409373587477</t>
-  </si>
-  <si>
-    <t>529462801173</t>
-  </si>
-  <si>
-    <t>639006959028</t>
-  </si>
-  <si>
-    <t>101152813392</t>
-  </si>
-  <si>
-    <t>664803296616</t>
-  </si>
-  <si>
-    <t>213690975475</t>
-  </si>
-  <si>
-    <t>232962687874</t>
-  </si>
-  <si>
-    <t>134409883511</t>
-  </si>
-  <si>
-    <t>262493492742</t>
-  </si>
-  <si>
-    <t>555635782712</t>
-  </si>
-  <si>
-    <t>153665810772</t>
-  </si>
-  <si>
-    <t>670333767695</t>
-  </si>
-  <si>
-    <t>545889078805</t>
-  </si>
-  <si>
-    <t>109041863122</t>
-  </si>
-  <si>
-    <t>463320731168</t>
-  </si>
-  <si>
-    <t>573305553956</t>
-  </si>
-  <si>
-    <t>979483313337</t>
-  </si>
-  <si>
-    <t>704601042073</t>
-  </si>
-  <si>
-    <t>394911173920</t>
-  </si>
-  <si>
-    <t>104381814673</t>
-  </si>
-  <si>
-    <t>869890811490</t>
-  </si>
-  <si>
-    <t>641671380746</t>
-  </si>
-  <si>
-    <t>841882896172</t>
-  </si>
-  <si>
-    <t>382100012419</t>
-  </si>
-  <si>
-    <t>651028896335</t>
-  </si>
-  <si>
-    <t>118755029658</t>
-  </si>
-  <si>
-    <t>745135933374</t>
-  </si>
-  <si>
-    <t>721802974156</t>
-  </si>
-  <si>
-    <t>453443932628</t>
-  </si>
-  <si>
-    <t>739431217355</t>
-  </si>
-  <si>
-    <t>917220768039</t>
-  </si>
-  <si>
-    <t>529393542660</t>
-  </si>
-  <si>
-    <t>934131122217</t>
-  </si>
-  <si>
-    <t>112274830637</t>
-  </si>
-  <si>
-    <t>675417166038</t>
-  </si>
-  <si>
-    <t>140714323899</t>
-  </si>
-  <si>
-    <t>380361986744</t>
-  </si>
-  <si>
-    <t>075945246898</t>
-  </si>
-  <si>
-    <t>204008805630</t>
-  </si>
-  <si>
-    <t>110836645239</t>
-  </si>
-  <si>
-    <t>069714341841</t>
-  </si>
-  <si>
-    <t>024591922173</t>
-  </si>
-  <si>
-    <t>048780402908</t>
-  </si>
-  <si>
-    <t>696180690887</t>
-  </si>
-  <si>
-    <t>427491718794</t>
-  </si>
-  <si>
-    <t>726439381493</t>
-  </si>
-  <si>
-    <t>483814932378</t>
-  </si>
-  <si>
-    <t>768336942362</t>
-  </si>
-  <si>
-    <t>951197252706</t>
-  </si>
-  <si>
-    <t>133772137512</t>
-  </si>
-  <si>
-    <t>386038380838</t>
-  </si>
-  <si>
-    <t>838996567115</t>
-  </si>
-  <si>
-    <t>551892195997</t>
-  </si>
-  <si>
-    <t>249179842900</t>
-  </si>
-  <si>
-    <t>027391928141</t>
-  </si>
-  <si>
-    <t>406968116939</t>
-  </si>
-  <si>
-    <t>471533703341</t>
-  </si>
-  <si>
-    <t>923433783591</t>
-  </si>
-  <si>
-    <t>283560412929</t>
-  </si>
-  <si>
-    <t>908573807073</t>
-  </si>
-  <si>
-    <t>859963928633</t>
-  </si>
-  <si>
-    <t>518122777036</t>
-  </si>
-  <si>
-    <t>961197516448</t>
-  </si>
-  <si>
-    <t>919720910204</t>
-  </si>
-  <si>
-    <t>378039802289</t>
-  </si>
-  <si>
-    <t>358663360173</t>
-  </si>
-  <si>
-    <t>903437275696</t>
-  </si>
-  <si>
-    <t>996070368608</t>
-  </si>
-  <si>
-    <t>526753709090</t>
-  </si>
-  <si>
-    <t>982078120878</t>
-  </si>
-  <si>
-    <t>871479838966</t>
-  </si>
-  <si>
-    <t>290954832512</t>
-  </si>
-  <si>
-    <t>434619178946</t>
-  </si>
-  <si>
-    <t>282715935261</t>
-  </si>
-  <si>
-    <t>973864436928</t>
-  </si>
-  <si>
-    <t>823119655299</t>
-  </si>
-  <si>
-    <t>298854708170</t>
-  </si>
-  <si>
-    <t>772932654316</t>
-  </si>
-  <si>
-    <t>799185054776</t>
-  </si>
-  <si>
-    <t>450400902531</t>
-  </si>
-  <si>
-    <t>767250238535</t>
-  </si>
-  <si>
-    <t>970305257941</t>
-  </si>
-  <si>
-    <t>171890551062</t>
-  </si>
-  <si>
-    <t>023878737803</t>
-  </si>
-  <si>
-    <t>830884866322</t>
-  </si>
-  <si>
-    <t>777283172734</t>
-  </si>
-  <si>
-    <t>716144541258</t>
-  </si>
-  <si>
-    <t>324687282490</t>
-  </si>
-  <si>
-    <t>959351656896</t>
-  </si>
-  <si>
-    <t>796861809871</t>
-  </si>
-  <si>
-    <t>024785320950</t>
-  </si>
-  <si>
-    <t>541427367821</t>
-  </si>
-  <si>
-    <t>689683490964</t>
-  </si>
-  <si>
-    <t>405881167038</t>
-  </si>
-  <si>
-    <t>820046622330</t>
-  </si>
-  <si>
-    <t>715842920194</t>
-  </si>
-  <si>
-    <t>959700850054</t>
-  </si>
-  <si>
-    <t>269579335076</t>
-  </si>
-  <si>
-    <t>453832860986</t>
-  </si>
-  <si>
-    <t>990287079210</t>
-  </si>
-  <si>
-    <t>212066248788</t>
-  </si>
-  <si>
-    <t>625727119233</t>
-  </si>
-  <si>
-    <t>015499730079</t>
-  </si>
-  <si>
-    <t>503253938318</t>
-  </si>
-  <si>
-    <t>192956783525</t>
-  </si>
-  <si>
-    <t>074188765012</t>
-  </si>
-  <si>
-    <t>041394838931</t>
-  </si>
-  <si>
-    <t>675388955305</t>
-  </si>
-  <si>
-    <t>479937272316</t>
-  </si>
-  <si>
-    <t>116725559845</t>
-  </si>
-  <si>
-    <t>400835298595</t>
-  </si>
-  <si>
-    <t>782095905433</t>
-  </si>
-  <si>
-    <t>505104689002</t>
-  </si>
-  <si>
-    <t>273550182077</t>
-  </si>
-  <si>
-    <t>103538937597</t>
-  </si>
-  <si>
-    <t>308630384041</t>
-  </si>
-  <si>
-    <t>983020652916</t>
-  </si>
-  <si>
-    <t>916077039554</t>
-  </si>
-  <si>
-    <t>478471059768</t>
-  </si>
-  <si>
-    <t>785313146402</t>
-  </si>
-  <si>
-    <t>257309165607</t>
-  </si>
-  <si>
-    <t>020900966643</t>
-  </si>
-  <si>
-    <t>886598120007</t>
-  </si>
-  <si>
-    <t>101577373058</t>
-  </si>
-  <si>
-    <t>467924075908</t>
-  </si>
-  <si>
-    <t>299130158240</t>
-  </si>
-  <si>
-    <t>180003995340</t>
-  </si>
-  <si>
-    <t>242019134686</t>
-  </si>
-  <si>
-    <t>830079334942</t>
-  </si>
-  <si>
-    <t>726243074403</t>
-  </si>
-  <si>
-    <t>607296214676</t>
-  </si>
-  <si>
-    <t>519012858486</t>
-  </si>
-  <si>
-    <t>742833967758</t>
-  </si>
-  <si>
-    <t>117006183554</t>
-  </si>
-  <si>
-    <t>824812157093</t>
-  </si>
-  <si>
-    <t>874547449888</t>
-  </si>
-  <si>
-    <t>937558611793</t>
-  </si>
-  <si>
-    <t>638214387441</t>
-  </si>
-  <si>
-    <t>065824901804</t>
-  </si>
-  <si>
-    <t>853924912587</t>
-  </si>
-  <si>
-    <t>710448901504</t>
-  </si>
-  <si>
-    <t>085865680372</t>
-  </si>
-  <si>
-    <t>430624365918</t>
-  </si>
-  <si>
-    <t>196139246682</t>
-  </si>
-  <si>
-    <t>778690655768</t>
-  </si>
-  <si>
-    <t>002633204590</t>
-  </si>
-  <si>
-    <t>315432272955</t>
-  </si>
-  <si>
-    <t>980072962578</t>
-  </si>
-  <si>
-    <t>784687396747</t>
-  </si>
-  <si>
-    <t>875768540892</t>
-  </si>
-  <si>
-    <t>554008422764</t>
-  </si>
-  <si>
-    <t>470885235739</t>
-  </si>
-  <si>
-    <t>434117543917</t>
-  </si>
-  <si>
-    <t>632300133687</t>
-  </si>
-  <si>
-    <t>965955272718</t>
-  </si>
-  <si>
-    <t>307362064901</t>
-  </si>
-  <si>
-    <t>095944037056</t>
-  </si>
-  <si>
-    <t>919368530794</t>
-  </si>
-  <si>
-    <t>783192687604</t>
-  </si>
-  <si>
-    <t>668050216046</t>
-  </si>
-  <si>
-    <t>210618761572</t>
-  </si>
-  <si>
-    <t>230788418877</t>
-  </si>
-  <si>
-    <t>779500626277</t>
-  </si>
-  <si>
-    <t>937368202142</t>
-  </si>
-  <si>
-    <t>914985143632</t>
-  </si>
-  <si>
-    <t>919159520130</t>
-  </si>
-  <si>
-    <t>644499417937</t>
-  </si>
-  <si>
-    <t>861546575728</t>
-  </si>
-  <si>
-    <t>185895981871</t>
-  </si>
-  <si>
-    <t>211172337837</t>
-  </si>
-  <si>
-    <t>357160076631</t>
-  </si>
-  <si>
-    <t>734177189075</t>
-  </si>
-  <si>
-    <t>218899139642</t>
-  </si>
-  <si>
-    <t>655535525812</t>
-  </si>
-  <si>
-    <t>223250302743</t>
-  </si>
-  <si>
-    <t>403910047352</t>
-  </si>
-  <si>
-    <t>034787302234</t>
-  </si>
-  <si>
-    <t>138785802503</t>
-  </si>
-  <si>
-    <t>761341304423</t>
-  </si>
-  <si>
-    <t>874270508464</t>
-  </si>
-  <si>
-    <t>718001144954</t>
-  </si>
-  <si>
-    <t>948851266198</t>
-  </si>
-  <si>
-    <t>677452040956</t>
-  </si>
-  <si>
-    <t>239847431255</t>
-  </si>
-  <si>
-    <t>212443588790</t>
-  </si>
-  <si>
-    <t>730811696284</t>
-  </si>
-  <si>
-    <t>516820923495</t>
-  </si>
-  <si>
-    <t>762635970678</t>
-  </si>
-  <si>
-    <t>485448793781</t>
-  </si>
-  <si>
-    <t>566368039073</t>
-  </si>
-  <si>
-    <t>997046174918</t>
-  </si>
-  <si>
-    <t>159812780358</t>
-  </si>
-  <si>
-    <t>717499914408</t>
-  </si>
-  <si>
-    <t>030830575781</t>
-  </si>
-  <si>
-    <t>527419865278</t>
-  </si>
-  <si>
-    <t>446010776336</t>
-  </si>
-  <si>
-    <t>959627478463</t>
-  </si>
-  <si>
-    <t>376034474252</t>
-  </si>
-  <si>
-    <t>745244044249</t>
-  </si>
-  <si>
-    <t>493326574013</t>
-  </si>
-  <si>
-    <t>774031204655</t>
-  </si>
-  <si>
-    <t>753367551705</t>
-  </si>
-  <si>
-    <t>082003081765</t>
-  </si>
-  <si>
-    <t>000540565519</t>
-  </si>
-  <si>
-    <t>701959047076</t>
-  </si>
-  <si>
-    <t>238186146004</t>
-  </si>
-  <si>
-    <t>048271254416</t>
-  </si>
-  <si>
-    <t>932535517283</t>
-  </si>
-  <si>
-    <t>187073042373</t>
-  </si>
-  <si>
-    <t>224246141823</t>
-  </si>
-  <si>
-    <t>174345247858</t>
-  </si>
-  <si>
-    <t>951941268190</t>
-  </si>
-  <si>
-    <t>709994472241</t>
-  </si>
-  <si>
-    <t>283694699644</t>
-  </si>
-  <si>
-    <t>451370354615</t>
-  </si>
-  <si>
-    <t>826430721202</t>
-  </si>
-  <si>
-    <t>106692368250</t>
-  </si>
-  <si>
-    <t>629220058656</t>
-  </si>
-  <si>
-    <t>023048557327</t>
-  </si>
-  <si>
-    <t>285214509606</t>
-  </si>
-  <si>
-    <t>763466761813</t>
-  </si>
-  <si>
-    <t>849831028001</t>
-  </si>
-  <si>
-    <t>310363013774</t>
-  </si>
-  <si>
-    <t>642955738153</t>
-  </si>
-  <si>
-    <t>870919746306</t>
-  </si>
-  <si>
-    <t>229783733936</t>
-  </si>
-  <si>
-    <t>777249035092</t>
-  </si>
-  <si>
-    <t>298405668855</t>
-  </si>
-  <si>
-    <t>050404896261</t>
-  </si>
-  <si>
-    <t>021098284426</t>
-  </si>
-  <si>
-    <t>624453270843</t>
-  </si>
-  <si>
-    <t>408432552091</t>
-  </si>
-  <si>
-    <t>623571682253</t>
-  </si>
-  <si>
-    <t>588564670683</t>
-  </si>
-  <si>
-    <t>367914268610</t>
-  </si>
-  <si>
-    <t>394661225616</t>
-  </si>
-  <si>
-    <t>339936928525</t>
-  </si>
-  <si>
-    <t>176351849436</t>
-  </si>
-  <si>
-    <t>814335512992</t>
-  </si>
-  <si>
-    <t>269944609216</t>
-  </si>
-  <si>
-    <t>595340928263</t>
-  </si>
-  <si>
-    <t>407956078475</t>
-  </si>
-  <si>
-    <t>965662540819</t>
-  </si>
-  <si>
-    <t>506923881084</t>
-  </si>
-  <si>
-    <t>692669195668</t>
-  </si>
-  <si>
-    <t>192505444521</t>
-  </si>
-  <si>
-    <t>083389688435</t>
-  </si>
-  <si>
-    <t>729897642853</t>
-  </si>
-  <si>
-    <t>126293695456</t>
-  </si>
-  <si>
-    <t>708198545420</t>
-  </si>
-  <si>
-    <t>377032838777</t>
-  </si>
-  <si>
-    <t>131302290997</t>
-  </si>
-  <si>
-    <t>415671794242</t>
-  </si>
-  <si>
-    <t>139227201548</t>
-  </si>
-  <si>
-    <t>584031426043</t>
-  </si>
-  <si>
-    <t>797640279123</t>
-  </si>
-  <si>
-    <t>664775283122</t>
-  </si>
-  <si>
-    <t>211226366363</t>
-  </si>
-  <si>
-    <t>849672851635</t>
-  </si>
-  <si>
-    <t>128510465511</t>
-  </si>
-  <si>
-    <t>025417552532</t>
-  </si>
-  <si>
-    <t>402630628418</t>
-  </si>
-  <si>
-    <t>209184849039</t>
-  </si>
-  <si>
-    <t>536714565874</t>
-  </si>
-  <si>
-    <t>177795089397</t>
-  </si>
-  <si>
-    <t>370743489613</t>
-  </si>
-  <si>
-    <t>823894401505</t>
-  </si>
-  <si>
-    <t>733930188458</t>
-  </si>
-  <si>
-    <t>529880974761</t>
-  </si>
-  <si>
-    <t>795489432307</t>
-  </si>
-  <si>
-    <t>422526534171</t>
-  </si>
-  <si>
-    <t>605714236976</t>
-  </si>
-  <si>
-    <t>133651232484</t>
-  </si>
-  <si>
-    <t>710509660098</t>
-  </si>
-  <si>
-    <t>574750730984</t>
-  </si>
-  <si>
-    <t>873793163833</t>
-  </si>
-  <si>
-    <t>885877362545</t>
-  </si>
-  <si>
-    <t>303957530393</t>
-  </si>
-  <si>
-    <t>638704456651</t>
-  </si>
-  <si>
-    <t>612263351355</t>
-  </si>
-  <si>
-    <t>868154537226</t>
-  </si>
-  <si>
-    <t>319346610908</t>
-  </si>
-  <si>
-    <t>624827307809</t>
-  </si>
-  <si>
-    <t>702871424696</t>
-  </si>
-  <si>
-    <t>456352952605</t>
-  </si>
-  <si>
-    <t>893835228850</t>
+    <t>814390233017</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>977381672754</t>
+  </si>
+  <si>
+    <t>443505668747</t>
+  </si>
+  <si>
+    <t>049367969109</t>
+  </si>
+  <si>
+    <t>896352091660</t>
+  </si>
+  <si>
+    <t>759129960643</t>
+  </si>
+  <si>
+    <t>976471822211</t>
+  </si>
+  <si>
+    <t>936274200742</t>
+  </si>
+  <si>
+    <t>430446636042</t>
+  </si>
+  <si>
+    <t>766396601454</t>
+  </si>
+  <si>
+    <t>327913405793</t>
+  </si>
+  <si>
+    <t>947354753133</t>
+  </si>
+  <si>
+    <t>409117100403</t>
+  </si>
+  <si>
+    <t>629877442693</t>
+  </si>
+  <si>
+    <t>458215326682</t>
+  </si>
+  <si>
+    <t>652674550334</t>
+  </si>
+  <si>
+    <t>285276511617</t>
+  </si>
+  <si>
+    <t>304899706058</t>
+  </si>
+  <si>
+    <t>575168917729</t>
+  </si>
+  <si>
+    <t>105628323719</t>
+  </si>
+  <si>
+    <t>380617171281</t>
+  </si>
+  <si>
+    <t>465916018456</t>
+  </si>
+  <si>
+    <t>175777464058</t>
+  </si>
+  <si>
+    <t>625395723013</t>
+  </si>
+  <si>
+    <t>403759963555</t>
+  </si>
+  <si>
+    <t>709058253863</t>
+  </si>
+  <si>
+    <t>287908785655</t>
+  </si>
+  <si>
+    <t>021399195619</t>
+  </si>
+  <si>
+    <t>977664170117</t>
+  </si>
+  <si>
+    <t>226599975974</t>
+  </si>
+  <si>
+    <t>321111125233</t>
+  </si>
+  <si>
+    <t>411735660838</t>
+  </si>
+  <si>
+    <t>206509583825</t>
+  </si>
+  <si>
+    <t>930499574044</t>
+  </si>
+  <si>
+    <t>966880660164</t>
+  </si>
+  <si>
+    <t>758722487707</t>
+  </si>
+  <si>
+    <t>699057735584</t>
+  </si>
+  <si>
+    <t>977341113661</t>
+  </si>
+  <si>
+    <t>411294725749</t>
+  </si>
+  <si>
+    <t>401756327848</t>
+  </si>
+  <si>
+    <t>285332411626</t>
+  </si>
+  <si>
+    <t>245308834759</t>
+  </si>
+  <si>
+    <t>771978101276</t>
+  </si>
+  <si>
+    <t>999431329246</t>
+  </si>
+  <si>
+    <t>961416660756</t>
+  </si>
+  <si>
+    <t>387275906008</t>
+  </si>
+  <si>
+    <t>837760918299</t>
+  </si>
+  <si>
+    <t>607036214810</t>
+  </si>
+  <si>
+    <t>498769970512</t>
+  </si>
+  <si>
+    <t>981760253484</t>
+  </si>
+  <si>
+    <t>313052019840</t>
+  </si>
+  <si>
+    <t>167758525287</t>
+  </si>
+  <si>
+    <t>941435522049</t>
+  </si>
+  <si>
+    <t>725582313377</t>
+  </si>
+  <si>
+    <t>990044362492</t>
+  </si>
+  <si>
+    <t>144545783295</t>
+  </si>
+  <si>
+    <t>707547336993</t>
+  </si>
+  <si>
+    <t>379662989308</t>
+  </si>
+  <si>
+    <t>884563833282</t>
+  </si>
+  <si>
+    <t>410369081371</t>
+  </si>
+  <si>
+    <t>748163518255</t>
+  </si>
+  <si>
+    <t>241133516184</t>
+  </si>
+  <si>
+    <t>629804223921</t>
+  </si>
+  <si>
+    <t>605644213910</t>
+  </si>
+  <si>
+    <t>059837639337</t>
+  </si>
+  <si>
+    <t>299380702813</t>
+  </si>
+  <si>
+    <t>245491325859</t>
+  </si>
+  <si>
+    <t>461891762292</t>
+  </si>
+  <si>
+    <t>937654703827</t>
+  </si>
+  <si>
+    <t>635728023009</t>
+  </si>
+  <si>
+    <t>760295497684</t>
+  </si>
+  <si>
+    <t>542410678216</t>
+  </si>
+  <si>
+    <t>364304333106</t>
+  </si>
+  <si>
+    <t>818121834081</t>
+  </si>
+  <si>
+    <t>368779180640</t>
+  </si>
+  <si>
+    <t>811267697456</t>
+  </si>
+  <si>
+    <t>644102037908</t>
+  </si>
+  <si>
+    <t>496531611951</t>
+  </si>
+  <si>
+    <t>668945603753</t>
+  </si>
+  <si>
+    <t>772118287242</t>
+  </si>
+  <si>
+    <t>601653478342</t>
+  </si>
+  <si>
+    <t>320803025272</t>
+  </si>
+  <si>
+    <t>506669034086</t>
+  </si>
+  <si>
+    <t>498811132468</t>
+  </si>
+  <si>
+    <t>484203126163</t>
+  </si>
+  <si>
+    <t>089838464064</t>
+  </si>
+  <si>
+    <t>022850207013</t>
+  </si>
+  <si>
+    <t>507235394532</t>
+  </si>
+  <si>
+    <t>506153851876</t>
+  </si>
+  <si>
+    <t>992352422168</t>
+  </si>
+  <si>
+    <t>990516529725</t>
+  </si>
+  <si>
+    <t>162023646328</t>
+  </si>
+  <si>
+    <t>827254909983</t>
+  </si>
+  <si>
+    <t>877948748543</t>
+  </si>
+  <si>
+    <t>249879893745</t>
+  </si>
+  <si>
+    <t>995258044309</t>
+  </si>
+  <si>
+    <t>231708341148</t>
+  </si>
+  <si>
+    <t>556436253667</t>
+  </si>
+  <si>
+    <t>415277535300</t>
+  </si>
+  <si>
+    <t>183760929053</t>
+  </si>
+  <si>
+    <t>432129608994</t>
+  </si>
+  <si>
+    <t>115435175817</t>
+  </si>
+  <si>
+    <t>484598875890</t>
+  </si>
+  <si>
+    <t>724486194663</t>
+  </si>
+  <si>
+    <t>853824825052</t>
+  </si>
+  <si>
+    <t>711389724359</t>
+  </si>
+  <si>
+    <t>041709546835</t>
+  </si>
+  <si>
+    <t>737484363248</t>
+  </si>
+  <si>
+    <t>042188164628</t>
+  </si>
+  <si>
+    <t>969433452506</t>
+  </si>
+  <si>
+    <t>965283662430</t>
+  </si>
+  <si>
+    <t>988576000645</t>
+  </si>
+  <si>
+    <t>217112075563</t>
+  </si>
+  <si>
+    <t>322501281326</t>
+  </si>
+  <si>
+    <t>846317789931</t>
+  </si>
+  <si>
+    <t>924128515926</t>
+  </si>
+  <si>
+    <t>156365839432</t>
+  </si>
+  <si>
+    <t>843113693893</t>
+  </si>
+  <si>
+    <t>257030443676</t>
+  </si>
+  <si>
+    <t>334429362050</t>
+  </si>
+  <si>
+    <t>574060169542</t>
+  </si>
+  <si>
+    <t>391482441047</t>
+  </si>
+  <si>
+    <t>143911159137</t>
+  </si>
+  <si>
+    <t>768171564310</t>
+  </si>
+  <si>
+    <t>070560753791</t>
+  </si>
+  <si>
+    <t>073075371704</t>
+  </si>
+  <si>
+    <t>083430456446</t>
+  </si>
+  <si>
+    <t>593436157750</t>
+  </si>
+  <si>
+    <t>467397315362</t>
+  </si>
+  <si>
+    <t>167067574803</t>
+  </si>
+  <si>
+    <t>312979942850</t>
+  </si>
+  <si>
+    <t>610582376424</t>
+  </si>
+  <si>
+    <t>208125449531</t>
+  </si>
+  <si>
+    <t>742898856587</t>
+  </si>
+  <si>
+    <t>399000286046</t>
+  </si>
+  <si>
+    <t>462854452310</t>
+  </si>
+  <si>
+    <t>432230344850</t>
+  </si>
+  <si>
+    <t>950944170309</t>
+  </si>
+  <si>
+    <t>693983684477</t>
+  </si>
+  <si>
+    <t>070383124782</t>
+  </si>
+  <si>
+    <t>710915364130</t>
+  </si>
+  <si>
+    <t>068383185804</t>
+  </si>
+  <si>
+    <t>974048733544</t>
+  </si>
+  <si>
+    <t>194948941641</t>
+  </si>
+  <si>
+    <t>214852606584</t>
+  </si>
+  <si>
+    <t>864979780151</t>
+  </si>
+  <si>
+    <t>952538854821</t>
+  </si>
+  <si>
+    <t>724646574932</t>
+  </si>
+  <si>
+    <t>508500718033</t>
+  </si>
+  <si>
+    <t>841293594688</t>
+  </si>
+  <si>
+    <t>300853105612</t>
+  </si>
+  <si>
+    <t>746342729395</t>
+  </si>
+  <si>
+    <t>017200600826</t>
+  </si>
+  <si>
+    <t>388628801633</t>
+  </si>
+  <si>
+    <t>103599490176</t>
+  </si>
+  <si>
+    <t>255788428763</t>
+  </si>
+  <si>
+    <t>251169181203</t>
+  </si>
+  <si>
+    <t>149254224239</t>
+  </si>
+  <si>
+    <t>406432852631</t>
+  </si>
+  <si>
+    <t>106262518614</t>
+  </si>
+  <si>
+    <t>338429515855</t>
+  </si>
+  <si>
+    <t>155704707684</t>
+  </si>
+  <si>
+    <t>407532340135</t>
+  </si>
+  <si>
+    <t>588347029636</t>
+  </si>
+  <si>
+    <t>192807899804</t>
+  </si>
+  <si>
+    <t>585784153068</t>
+  </si>
+  <si>
+    <t>485600048145</t>
+  </si>
+  <si>
+    <t>713817640179</t>
+  </si>
+  <si>
+    <t>412361401776</t>
+  </si>
+  <si>
+    <t>275463051963</t>
+  </si>
+  <si>
+    <t>572055804354</t>
+  </si>
+  <si>
+    <t>267017413864</t>
+  </si>
+  <si>
+    <t>833332905094</t>
+  </si>
+  <si>
+    <t>502259720986</t>
+  </si>
+  <si>
+    <t>208259519629</t>
+  </si>
+  <si>
+    <t>669646812738</t>
+  </si>
+  <si>
+    <t>367573376443</t>
+  </si>
+  <si>
+    <t>388928590181</t>
+  </si>
+  <si>
+    <t>236352262543</t>
+  </si>
+  <si>
+    <t>553220548284</t>
+  </si>
+  <si>
+    <t>567977692945</t>
+  </si>
+  <si>
+    <t>403481729287</t>
+  </si>
+  <si>
+    <t>916097058377</t>
+  </si>
+  <si>
+    <t>796189291057</t>
+  </si>
+  <si>
+    <t>045762437672</t>
+  </si>
+  <si>
+    <t>176504717240</t>
+  </si>
+  <si>
+    <t>478136878992</t>
+  </si>
+  <si>
+    <t>796757716067</t>
+  </si>
+  <si>
+    <t>706325960368</t>
+  </si>
+  <si>
+    <t>741718258392</t>
+  </si>
+  <si>
+    <t>919812755696</t>
+  </si>
+  <si>
+    <t>861471831249</t>
+  </si>
+  <si>
+    <t>887874545789</t>
+  </si>
+  <si>
+    <t>420580906411</t>
+  </si>
+  <si>
+    <t>515998855119</t>
+  </si>
+  <si>
+    <t>760083426096</t>
+  </si>
+  <si>
+    <t>788841421989</t>
+  </si>
+  <si>
+    <t>079376422415</t>
+  </si>
+  <si>
+    <t>331180615599</t>
+  </si>
+  <si>
+    <t>496890942636</t>
+  </si>
+  <si>
+    <t>060322999992</t>
+  </si>
+  <si>
+    <t>039538289279</t>
+  </si>
+  <si>
+    <t>239448447224</t>
+  </si>
+  <si>
+    <t>113656670685</t>
+  </si>
+  <si>
+    <t>841952089293</t>
+  </si>
+  <si>
+    <t>325944476719</t>
+  </si>
+  <si>
+    <t>631529387157</t>
+  </si>
+  <si>
+    <t>964219109444</t>
+  </si>
+  <si>
+    <t>085570447891</t>
+  </si>
+  <si>
+    <t>810967903025</t>
+  </si>
+  <si>
+    <t>086731926178</t>
+  </si>
+  <si>
+    <t>590458066308</t>
+  </si>
+  <si>
+    <t>953185398019</t>
+  </si>
+  <si>
+    <t>131143844213</t>
+  </si>
+  <si>
+    <t>709439813846</t>
+  </si>
+  <si>
+    <t>216378868381</t>
+  </si>
+  <si>
+    <t>120659519952</t>
+  </si>
+  <si>
+    <t>067912233219</t>
+  </si>
+  <si>
+    <t>221318098868</t>
+  </si>
+  <si>
+    <t>613854260483</t>
+  </si>
+  <si>
+    <t>679949877092</t>
+  </si>
+  <si>
+    <t>894708719668</t>
+  </si>
+  <si>
+    <t>085293112369</t>
+  </si>
+  <si>
+    <t>931429465504</t>
+  </si>
+  <si>
+    <t>137633430737</t>
+  </si>
+  <si>
+    <t>971560818884</t>
+  </si>
+  <si>
+    <t>244970410335</t>
+  </si>
+  <si>
+    <t>307878207336</t>
+  </si>
+  <si>
+    <t>541341874733</t>
+  </si>
+  <si>
+    <t>934051475494</t>
+  </si>
+  <si>
+    <t>550601049436</t>
+  </si>
+  <si>
+    <t>218521619062</t>
+  </si>
+  <si>
+    <t>298292089694</t>
+  </si>
+  <si>
+    <t>174628416131</t>
+  </si>
+  <si>
+    <t>714025213218</t>
+  </si>
+  <si>
+    <t>526807055410</t>
+  </si>
+  <si>
+    <t>370498862903</t>
+  </si>
+  <si>
+    <t>972824654566</t>
+  </si>
+  <si>
+    <t>262811645919</t>
+  </si>
+  <si>
+    <t>548059141192</t>
+  </si>
+  <si>
+    <t>173987376134</t>
+  </si>
+  <si>
+    <t>357552633730</t>
+  </si>
+  <si>
+    <t>415772938769</t>
+  </si>
+  <si>
+    <t>207941057819</t>
+  </si>
+  <si>
+    <t>868305268779</t>
+  </si>
+  <si>
+    <t>041178661932</t>
+  </si>
+  <si>
+    <t>813399493216</t>
+  </si>
+  <si>
+    <t>968144685104</t>
+  </si>
+  <si>
+    <t>665384617906</t>
+  </si>
+  <si>
+    <t>914761782254</t>
+  </si>
+  <si>
+    <t>781075513007</t>
+  </si>
+  <si>
+    <t>567310653540</t>
+  </si>
+  <si>
+    <t>133165701266</t>
+  </si>
+  <si>
+    <t>378278145020</t>
+  </si>
+  <si>
+    <t>464101403717</t>
+  </si>
+  <si>
+    <t>658160138953</t>
+  </si>
+  <si>
+    <t>383013293312</t>
+  </si>
+  <si>
+    <t>116822016164</t>
+  </si>
+  <si>
+    <t>301748166738</t>
+  </si>
+  <si>
+    <t>128773846842</t>
+  </si>
+  <si>
+    <t>044809509005</t>
+  </si>
+  <si>
+    <t>309718568086</t>
+  </si>
+  <si>
+    <t>332884409517</t>
+  </si>
+  <si>
+    <t>564448608007</t>
+  </si>
+  <si>
+    <t>369025758656</t>
+  </si>
+  <si>
+    <t>119070601063</t>
+  </si>
+  <si>
+    <t>602808636938</t>
+  </si>
+  <si>
+    <t>342322825302</t>
+  </si>
+  <si>
+    <t>554961426074</t>
+  </si>
+  <si>
+    <t>612821218975</t>
+  </si>
+  <si>
+    <t>654930793039</t>
+  </si>
+  <si>
+    <t>770937585904</t>
+  </si>
+  <si>
+    <t>364952686678</t>
+  </si>
+  <si>
+    <t>569941543680</t>
+  </si>
+  <si>
+    <t>798078737680</t>
+  </si>
+  <si>
+    <t>235416327532</t>
+  </si>
+  <si>
+    <t>346152088743</t>
+  </si>
+  <si>
+    <t>016271932294</t>
+  </si>
+  <si>
+    <t>964375005467</t>
+  </si>
+  <si>
+    <t>728277090503</t>
+  </si>
+  <si>
+    <t>670352696961</t>
+  </si>
+  <si>
+    <t>917126602889</t>
+  </si>
+  <si>
+    <t>709321815985</t>
+  </si>
+  <si>
+    <t>236464255895</t>
+  </si>
+  <si>
+    <t>059879479724</t>
+  </si>
+  <si>
+    <t>586022112784</t>
+  </si>
+  <si>
+    <t>215104722298</t>
+  </si>
+  <si>
+    <t>407940221724</t>
+  </si>
+  <si>
+    <t>546026548223</t>
+  </si>
+  <si>
+    <t>536759797894</t>
+  </si>
+  <si>
+    <t>036129487032</t>
+  </si>
+  <si>
+    <t>613091115109</t>
+  </si>
+  <si>
+    <t>799108090095</t>
+  </si>
+  <si>
+    <t>058499334405</t>
+  </si>
+  <si>
+    <t>351346780943</t>
+  </si>
+  <si>
+    <t>801574465502</t>
+  </si>
+  <si>
+    <t>765339016080</t>
+  </si>
+  <si>
+    <t>856257933357</t>
+  </si>
+  <si>
+    <t>791397267289</t>
+  </si>
+  <si>
+    <t>139073132814</t>
+  </si>
+  <si>
+    <t>013300309455</t>
+  </si>
+  <si>
+    <t>487271468721</t>
+  </si>
+  <si>
+    <t>482817444732</t>
+  </si>
+  <si>
+    <t>741111856950</t>
+  </si>
+  <si>
+    <t>135774179377</t>
+  </si>
+  <si>
+    <t>015193428490</t>
+  </si>
+  <si>
+    <t>108414607319</t>
+  </si>
+  <si>
+    <t>524116581916</t>
+  </si>
+  <si>
+    <t>389560962559</t>
+  </si>
+  <si>
+    <t>421093815942</t>
+  </si>
+  <si>
+    <t>188704973314</t>
+  </si>
+  <si>
+    <t>586029362728</t>
+  </si>
+  <si>
+    <t>900635516016</t>
+  </si>
+  <si>
+    <t>452013151944</t>
+  </si>
+  <si>
+    <t>593544760389</t>
+  </si>
+  <si>
+    <t>632720493866</t>
+  </si>
+  <si>
+    <t>283186947205</t>
+  </si>
+  <si>
+    <t>119292123466</t>
+  </si>
+  <si>
+    <t>181840859726</t>
+  </si>
+  <si>
+    <t>470132258511</t>
+  </si>
+  <si>
+    <t>924137751476</t>
+  </si>
+  <si>
+    <t>259856872495</t>
+  </si>
+  <si>
+    <t>044417193854</t>
+  </si>
+  <si>
+    <t>950935311565</t>
+  </si>
+  <si>
+    <t>828751977592</t>
+  </si>
+  <si>
+    <t>148346340164</t>
+  </si>
+  <si>
+    <t>163990479115</t>
+  </si>
+  <si>
+    <t>043292895038</t>
+  </si>
+  <si>
+    <t>392737359147</t>
+  </si>
+  <si>
+    <t>876967793870</t>
+  </si>
+  <si>
+    <t>825904944899</t>
+  </si>
+  <si>
+    <t>411642929484</t>
+  </si>
+  <si>
+    <t>497533735419</t>
+  </si>
+  <si>
+    <t>115252267026</t>
+  </si>
+  <si>
+    <t>489396998426</t>
+  </si>
+  <si>
+    <t>825232842231</t>
+  </si>
+  <si>
+    <t>497856052524</t>
+  </si>
+  <si>
+    <t>324570246328</t>
+  </si>
+  <si>
+    <t>177975299758</t>
+  </si>
+  <si>
+    <t>525943206124</t>
+  </si>
+  <si>
+    <t>458357550543</t>
+  </si>
+  <si>
+    <t>006905176804</t>
+  </si>
+  <si>
+    <t>874485916926</t>
+  </si>
+  <si>
+    <t>750946008349</t>
+  </si>
+  <si>
+    <t>393799761904</t>
+  </si>
+  <si>
+    <t>838721984221</t>
+  </si>
+  <si>
+    <t>721205897396</t>
+  </si>
+  <si>
+    <t>906550775616</t>
+  </si>
+  <si>
+    <t>978746687636</t>
+  </si>
+  <si>
+    <t>212669652415</t>
+  </si>
+  <si>
+    <t>378909853407</t>
+  </si>
+  <si>
+    <t>312003280106</t>
+  </si>
+  <si>
+    <t>360770279457</t>
+  </si>
+  <si>
+    <t>681885318174</t>
+  </si>
+  <si>
+    <t>352954687848</t>
+  </si>
+  <si>
+    <t>949060087629</t>
+  </si>
+  <si>
+    <t>836726761688</t>
+  </si>
+  <si>
+    <t>878692193313</t>
+  </si>
+  <si>
+    <t>583676662835</t>
+  </si>
+  <si>
+    <t>966835307901</t>
+  </si>
+  <si>
+    <t>287830740261</t>
+  </si>
+  <si>
+    <t>436979680827</t>
+  </si>
+  <si>
+    <t>322636179270</t>
+  </si>
+  <si>
+    <t>647198160177</t>
+  </si>
+  <si>
+    <t>965416396025</t>
+  </si>
+  <si>
+    <t>443934116215</t>
+  </si>
+  <si>
+    <t>311956883009</t>
+  </si>
+  <si>
+    <t>902155810044</t>
+  </si>
+  <si>
+    <t>861923305700</t>
+  </si>
+  <si>
+    <t>514628978079</t>
+  </si>
+  <si>
+    <t>307635354653</t>
+  </si>
+  <si>
+    <t>691076608586</t>
+  </si>
+  <si>
+    <t>952453775147</t>
+  </si>
+  <si>
+    <t>549322014397</t>
+  </si>
+  <si>
+    <t>102868219809</t>
+  </si>
+  <si>
+    <t>794786002217</t>
+  </si>
+  <si>
+    <t>234445432975</t>
+  </si>
+  <si>
+    <t>862230413669</t>
+  </si>
+  <si>
+    <t>280173127732</t>
+  </si>
+  <si>
+    <t>947242280464</t>
+  </si>
+  <si>
+    <t>663003522816</t>
+  </si>
+  <si>
+    <t>819461086145</t>
+  </si>
+  <si>
+    <t>267062769800</t>
+  </si>
+  <si>
+    <t>888764755851</t>
+  </si>
+  <si>
+    <t>233988778474</t>
+  </si>
+  <si>
+    <t>928697675688</t>
+  </si>
+  <si>
+    <t>974178533298</t>
+  </si>
+  <si>
+    <t>382564281316</t>
+  </si>
+  <si>
+    <t>827390553803</t>
+  </si>
+  <si>
+    <t>259967071441</t>
+  </si>
+  <si>
+    <t>044329156753</t>
+  </si>
+  <si>
+    <t>960767796382</t>
+  </si>
+  <si>
+    <t>426859346001</t>
+  </si>
+  <si>
+    <t>469190995450</t>
+  </si>
+  <si>
+    <t>593975399689</t>
+  </si>
+  <si>
+    <t>425235739214</t>
+  </si>
+  <si>
+    <t>546246720525</t>
+  </si>
+  <si>
+    <t>146106727090</t>
+  </si>
+  <si>
+    <t>805023333468</t>
+  </si>
+  <si>
+    <t>555917473664</t>
+  </si>
+  <si>
+    <t>200857587592</t>
+  </si>
+  <si>
+    <t>987266166216</t>
+  </si>
+  <si>
+    <t>700318856998</t>
+  </si>
+  <si>
+    <t>146741452555</t>
+  </si>
+  <si>
+    <t>321106188413</t>
+  </si>
+  <si>
+    <t>638641362046</t>
+  </si>
+  <si>
+    <t>409255078920</t>
+  </si>
+  <si>
+    <t>800094549950</t>
+  </si>
+  <si>
+    <t>865161380225</t>
+  </si>
+  <si>
+    <t>353681972025</t>
+  </si>
+  <si>
+    <t>608929921642</t>
+  </si>
+  <si>
+    <t>001227166568</t>
+  </si>
+  <si>
+    <t>264370311421</t>
+  </si>
+  <si>
+    <t>911907321418</t>
+  </si>
+  <si>
+    <t>581186308898</t>
+  </si>
+  <si>
+    <t>506164693701</t>
+  </si>
+  <si>
+    <t>173381178802</t>
+  </si>
+  <si>
+    <t>230785110558</t>
+  </si>
+  <si>
+    <t>960397697510</t>
+  </si>
+  <si>
+    <t>262443667383</t>
+  </si>
+  <si>
+    <t>415052630222</t>
+  </si>
+  <si>
+    <t>232396383257</t>
+  </si>
+  <si>
+    <t>366327054091</t>
+  </si>
+  <si>
+    <t>166208633370</t>
+  </si>
+  <si>
+    <t>100002762699</t>
+  </si>
+  <si>
+    <t>014759791589</t>
+  </si>
+  <si>
+    <t>833824620153</t>
+  </si>
+  <si>
+    <t>189411891532</t>
+  </si>
+  <si>
+    <t>107277845776</t>
+  </si>
+  <si>
+    <t>410868299220</t>
+  </si>
+  <si>
+    <t>720398875168</t>
+  </si>
+  <si>
+    <t>013607179923</t>
+  </si>
+  <si>
+    <t>668669688487</t>
+  </si>
+  <si>
+    <t>828869195661</t>
+  </si>
+  <si>
+    <t>807332131781</t>
+  </si>
+  <si>
+    <t>916377304638</t>
+  </si>
+  <si>
+    <t>670787840081</t>
+  </si>
+  <si>
+    <t>327703372974</t>
+  </si>
+  <si>
+    <t>949768683413</t>
+  </si>
+  <si>
+    <t>628576215553</t>
+  </si>
+  <si>
+    <t>400026201491</t>
+  </si>
+  <si>
+    <t>705976191310</t>
+  </si>
+  <si>
+    <t>667985089248</t>
+  </si>
+  <si>
+    <t>557011583575</t>
+  </si>
+  <si>
+    <t>982868342396</t>
+  </si>
+  <si>
+    <t>110020054899</t>
+  </si>
+  <si>
+    <t>238946370687</t>
+  </si>
+  <si>
+    <t>339868558008</t>
+  </si>
+  <si>
+    <t>517769960045</t>
+  </si>
+  <si>
+    <t>732838409899</t>
+  </si>
+  <si>
+    <t>370886483319</t>
+  </si>
+  <si>
+    <t>496333578274</t>
+  </si>
+  <si>
+    <t>721405170151</t>
+  </si>
+  <si>
+    <t>643706573820</t>
+  </si>
+  <si>
+    <t>699352495870</t>
+  </si>
+  <si>
+    <t>326639475769</t>
+  </si>
+  <si>
+    <t>969582670392</t>
+  </si>
+  <si>
+    <t>264760688993</t>
+  </si>
+  <si>
+    <t>547720283884</t>
+  </si>
+  <si>
+    <t>381925753446</t>
+  </si>
+  <si>
+    <t>473506813235</t>
+  </si>
+  <si>
+    <t>874821583580</t>
+  </si>
+  <si>
+    <t>088457199489</t>
+  </si>
+  <si>
+    <t>380387310536</t>
+  </si>
+  <si>
+    <t>778432186901</t>
+  </si>
+  <si>
+    <t>757914205032</t>
+  </si>
+  <si>
+    <t>155742202696</t>
+  </si>
+  <si>
+    <t>552706837689</t>
+  </si>
+  <si>
+    <t>033669585209</t>
+  </si>
+  <si>
+    <t>375199845622</t>
+  </si>
+  <si>
+    <t>748081278856</t>
+  </si>
+  <si>
+    <t>572162712367</t>
+  </si>
+  <si>
+    <t>463156944633</t>
+  </si>
+  <si>
+    <t>801402532203</t>
+  </si>
+  <si>
+    <t>329383738550</t>
+  </si>
+  <si>
+    <t>464686310081</t>
+  </si>
+  <si>
+    <t>991717922876</t>
+  </si>
+  <si>
+    <t>489051249893</t>
+  </si>
+  <si>
+    <t>994590025572</t>
+  </si>
+  <si>
+    <t>516300516912</t>
+  </si>
+  <si>
+    <t>220334507574</t>
+  </si>
+  <si>
+    <t>582218710834</t>
+  </si>
+  <si>
+    <t>339365017578</t>
+  </si>
+  <si>
+    <t>322786397899</t>
+  </si>
+  <si>
+    <t>448739729042</t>
+  </si>
+  <si>
+    <t>256348488157</t>
+  </si>
+  <si>
+    <t>236540560612</t>
+  </si>
+  <si>
+    <t>455604676675</t>
+  </si>
+  <si>
+    <t>876720628370</t>
+  </si>
+  <si>
+    <t>448645203965</t>
+  </si>
+  <si>
+    <t>194803710067</t>
+  </si>
+  <si>
+    <t>736362147307</t>
+  </si>
+  <si>
+    <t>341376220335</t>
+  </si>
+  <si>
+    <t>789271773525</t>
+  </si>
+  <si>
+    <t>970126076690</t>
+  </si>
+  <si>
+    <t>804615047253</t>
+  </si>
+  <si>
+    <t>520455257891</t>
+  </si>
+  <si>
+    <t>905650880875</t>
+  </si>
+  <si>
+    <t>512866441176</t>
+  </si>
+  <si>
+    <t>063944009313</t>
   </si>
 </sst>
 </file>
